--- a/Data/GeoMicro/Master_Key_V3.xlsx
+++ b/Data/GeoMicro/Master_Key_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EDaH\Data\GeoMicro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629CE40-8DE1-4D8A-A4A4-9EF2371007E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E8A1FA-BC1D-4352-B4CF-95A82740E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="660">
   <si>
     <t>var</t>
   </si>
@@ -2009,6 +2009,9 @@
   </si>
   <si>
     <t>align_how</t>
+  </si>
+  <si>
+    <t>align</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8264,9 +8267,9 @@
           </x14:formula1>
           <xm:sqref>B61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A26EEE3-D240-4231-A775-177FE861C617}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0426BF5F-2515-4A03-8A1D-253569B89689}">
           <x14:formula1>
-            <xm:f>Unit_dropdowns!$Z$2:$Z$8</xm:f>
+            <xm:f>Unit_dropdowns!$Z$2:$Z$9</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E79</xm:sqref>
         </x14:dataValidation>
@@ -8285,7 +8288,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13886,9 +13889,9 @@
           </x14:formula1>
           <xm:sqref>B8:B13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B66C6D24-4437-455B-8EEE-E970209FCDD5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B277EA1-E1E1-40C5-A0D4-AC9520F15A51}">
           <x14:formula1>
-            <xm:f>Unit_dropdowns!$Z$2:$Z$8</xm:f>
+            <xm:f>Unit_dropdowns!$Z$2:$Z$9</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E145</xm:sqref>
         </x14:dataValidation>
@@ -15001,8 +15004,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15540,6 +15543,9 @@
       </c>
       <c r="V9" t="s">
         <v>551</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">

--- a/Data/GeoMicro/Master_Key_V3.xlsx
+++ b/Data/GeoMicro/Master_Key_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EDaH\Data\GeoMicro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E8A1FA-BC1D-4352-B4CF-95A82740E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82BBC32-BC42-430A-BF24-6CDA995C927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="617">
   <si>
     <t>var</t>
   </si>
@@ -1108,213 +1108,12 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>Bulk Layer Fraction Modern</t>
-  </si>
-  <si>
-    <t>lyr_frc_modern</t>
-  </si>
-  <si>
-    <t>Bulk Layer Fraction Modern Standard Deviation</t>
-  </si>
-  <si>
-    <t>lyr_frc_modern_sdv</t>
-  </si>
-  <si>
     <t>Fractionation Scheme</t>
   </si>
   <si>
-    <t>frc_scheme</t>
-  </si>
-  <si>
     <t>fraction</t>
   </si>
   <si>
-    <t>Fraction Property</t>
-  </si>
-  <si>
-    <t>frc_property</t>
-  </si>
-  <si>
-    <t>Fractionation Scheme Units</t>
-  </si>
-  <si>
-    <t>frc_scheme_units</t>
-  </si>
-  <si>
-    <t>Lower Cutoff Numerical (e.g., density, diameter, days, etc.)</t>
-  </si>
-  <si>
-    <t>frc_low_cutoff</t>
-  </si>
-  <si>
-    <t>Upper Cutoff Numerical (e.g., density, diameter, days, etc.)</t>
-  </si>
-  <si>
-    <t>frc_high_cutoff</t>
-  </si>
-  <si>
-    <t>Concentration of Extractant</t>
-  </si>
-  <si>
-    <t>frc_extr_conc</t>
-  </si>
-  <si>
-    <t>moles</t>
-  </si>
-  <si>
-    <t>Sequential Fractionation?</t>
-  </si>
-  <si>
-    <t>frc_sqtl</t>
-  </si>
-  <si>
-    <t>Yes or Blank</t>
-  </si>
-  <si>
-    <t>Numerical Ordering of Fractions From the Same Sequence</t>
-  </si>
-  <si>
-    <t>frc_seq_order</t>
-  </si>
-  <si>
-    <t>Was Fraction a Composite?</t>
-  </si>
-  <si>
-    <t>frc_composite</t>
-  </si>
-  <si>
-    <t>Fraction Notes</t>
-  </si>
-  <si>
-    <t>frc_notes</t>
-  </si>
-  <si>
-    <t>Fraction Proportion of layer Carbon</t>
-  </si>
-  <si>
-    <t>frc_c_perc</t>
-  </si>
-  <si>
-    <t>Fraction Proportion of layer Mass</t>
-  </si>
-  <si>
-    <t>frc_mass_perc</t>
-  </si>
-  <si>
-    <t>Fraction Total Carbon</t>
-  </si>
-  <si>
-    <t>frc_c_tot</t>
-  </si>
-  <si>
-    <t>Fraction Organic Carbon</t>
-  </si>
-  <si>
-    <t>frc_oc</t>
-  </si>
-  <si>
-    <t>Fraction Total Nitrogen</t>
-  </si>
-  <si>
-    <t>frc_n_tot</t>
-  </si>
-  <si>
-    <t>Fraction C:N</t>
-  </si>
-  <si>
-    <t>frc_c_to_n</t>
-  </si>
-  <si>
-    <t>Fraction δ15N</t>
-  </si>
-  <si>
-    <t>frc_15n</t>
-  </si>
-  <si>
-    <t>Fraction δ13C</t>
-  </si>
-  <si>
-    <t>frc_13c</t>
-  </si>
-  <si>
-    <t>frc_radiolabID</t>
-  </si>
-  <si>
-    <t>frc_radiolab_lyrnum</t>
-  </si>
-  <si>
-    <t>frc_radioanlys_yr</t>
-  </si>
-  <si>
-    <t>Fraction Δ14C</t>
-  </si>
-  <si>
-    <t>frc_14c</t>
-  </si>
-  <si>
-    <t>Fraction Δ14C Standard Deviation</t>
-  </si>
-  <si>
-    <t>frc_14c_sdv</t>
-  </si>
-  <si>
-    <t>Fraction Fraction Modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>Fraction Fraction Modern Standard Deviation</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sdv</t>
-  </si>
-  <si>
-    <t>frc_quartz</t>
-  </si>
-  <si>
-    <t>frc_alkali_feldspar</t>
-  </si>
-  <si>
-    <t>frc_plag_feldspar</t>
-  </si>
-  <si>
-    <t>Mica + Chlorite</t>
-  </si>
-  <si>
-    <t>frc_mica_chlorite</t>
-  </si>
-  <si>
-    <t>frc_amphibole</t>
-  </si>
-  <si>
-    <t>frc_pyroxine</t>
-  </si>
-  <si>
-    <t>frc_olivine</t>
-  </si>
-  <si>
-    <t>frc_volc_glass</t>
-  </si>
-  <si>
-    <t>frc_kaol_halloy</t>
-  </si>
-  <si>
-    <t>frc_smect_vermic</t>
-  </si>
-  <si>
-    <t>frc_gibbsite</t>
-  </si>
-  <si>
-    <t>frc_fe_oxides</t>
-  </si>
-  <si>
-    <t>frc_imog_alloph</t>
-  </si>
-  <si>
-    <t>frc_ferrihydrite</t>
-  </si>
-  <si>
     <t>experimental level</t>
   </si>
   <si>
@@ -2012,13 +1811,85 @@
   </si>
   <si>
     <t>align</t>
+  </si>
+  <si>
+    <t>Fractionation method</t>
+  </si>
+  <si>
+    <t>frac_method</t>
+  </si>
+  <si>
+    <t>Light fraction lower cutoff</t>
+  </si>
+  <si>
+    <t>lf_low_cut</t>
+  </si>
+  <si>
+    <t>Light fraction upper cutoff</t>
+  </si>
+  <si>
+    <t>lf_high_cut</t>
+  </si>
+  <si>
+    <t>Light fraction mass proportion</t>
+  </si>
+  <si>
+    <t>lf_mass_prop</t>
+  </si>
+  <si>
+    <t>Light fraction C concentration</t>
+  </si>
+  <si>
+    <t>lf_c</t>
+  </si>
+  <si>
+    <t>Light fraction N concentration</t>
+  </si>
+  <si>
+    <t>lf_n</t>
+  </si>
+  <si>
+    <t>Light fraction Δ13C</t>
+  </si>
+  <si>
+    <t>lf_13c</t>
+  </si>
+  <si>
+    <t>Light fraction Δ15NC</t>
+  </si>
+  <si>
+    <t>lf_15n</t>
+  </si>
+  <si>
+    <t>Heavy fraction lower cutoff</t>
+  </si>
+  <si>
+    <t>hf_low_cut</t>
+  </si>
+  <si>
+    <t>Heavy fraction upper cutoff</t>
+  </si>
+  <si>
+    <t>hf_high_cut</t>
+  </si>
+  <si>
+    <t>Heavy fraction mass proportion</t>
+  </si>
+  <si>
+    <t>hf_mass_prop</t>
+  </si>
+  <si>
+    <t>Soil moisture</t>
+  </si>
+  <si>
+    <t>soil_moisture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2026,15 +1897,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2113,21 +1975,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2157,16 +2019,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2494,7 +2353,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2521,28 +2380,28 @@
         <v>267</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="H1" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>138</v>
@@ -2551,16 +2410,16 @@
         <v>136</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -2587,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>5</v>
@@ -2610,7 +2469,7 @@
       <c r="N2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="18" t="b">
+      <c r="O2" s="17" t="b">
         <v>1</v>
       </c>
       <c r="P2" s="6" t="b">
@@ -2628,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>5</v>
@@ -2651,7 +2510,7 @@
       <c r="N3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="18" t="b">
+      <c r="O3" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P3" s="6" t="b">
@@ -2669,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>5</v>
@@ -2692,7 +2551,7 @@
       <c r="N4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="18" t="b">
+      <c r="O4" s="17" t="b">
         <v>1</v>
       </c>
       <c r="P4" s="6" t="b">
@@ -2710,7 +2569,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>5</v>
@@ -2733,7 +2592,7 @@
       <c r="N5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="18" t="b">
+      <c r="O5" s="17" t="b">
         <v>1</v>
       </c>
       <c r="P5" s="6" t="b">
@@ -2751,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
@@ -2774,7 +2633,7 @@
       <c r="N6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="18" t="b">
+      <c r="O6" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="b">
@@ -2792,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
@@ -2815,7 +2674,7 @@
       <c r="N7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="18" t="b">
+      <c r="O7" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="b">
@@ -2833,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>5</v>
@@ -2856,7 +2715,7 @@
       <c r="N8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="18" t="b">
+      <c r="O8" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="b">
@@ -2874,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>5</v>
@@ -2897,7 +2756,7 @@
       <c r="N9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="18" t="b">
+      <c r="O9" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="b">
@@ -2915,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>5</v>
@@ -2938,7 +2797,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="18" t="b">
+      <c r="O10" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="b">
@@ -2946,7 +2805,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
@@ -2957,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>5</v>
@@ -2980,7 +2839,7 @@
       <c r="N11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="18" t="b">
+      <c r="O11" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="b">
@@ -2998,7 +2857,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>5</v>
@@ -3021,7 +2880,7 @@
       <c r="N12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="18" t="b">
+      <c r="O12" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="b">
@@ -3033,18 +2892,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>635</v>
+        <v>568</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>636</v>
+        <v>569</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="6" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +2922,7 @@
       <c r="N13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="18" t="b">
+      <c r="O13" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="b">
@@ -3088,18 +2947,18 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>637</v>
+        <v>570</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>638</v>
+        <v>571</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="6" t="s">
         <v>2</v>
       </c>
@@ -3118,10 +2977,10 @@
       <c r="N14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18" t="b">
+      <c r="O14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17" t="b">
         <v>0</v>
       </c>
       <c r="Q14" s="13"/>
@@ -3143,13 +3002,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>599</v>
+        <v>532</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>5</v>
@@ -3172,7 +3031,7 @@
       <c r="N15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O15" s="18" t="b">
+      <c r="O15" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="b">
@@ -3184,13 +3043,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>5</v>
@@ -3213,7 +3072,7 @@
       <c r="N16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="18" t="b">
+      <c r="O16" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="b">
@@ -3225,13 +3084,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>5</v>
@@ -3254,7 +3113,7 @@
       <c r="N17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="18" t="b">
+      <c r="O17" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="b">
@@ -3266,13 +3125,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>5</v>
@@ -3295,7 +3154,7 @@
       <c r="N18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="18" t="b">
+      <c r="O18" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="b">
@@ -3304,13 +3163,13 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>5</v>
@@ -3325,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>2</v>
@@ -3333,7 +3192,7 @@
       <c r="N19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="18" t="b">
+      <c r="O19" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="b">
@@ -3342,13 +3201,13 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>5</v>
@@ -3363,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>2</v>
@@ -3371,7 +3230,7 @@
       <c r="N20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="18" t="b">
+      <c r="O20" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="b">
@@ -3380,13 +3239,13 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>5</v>
@@ -3401,7 +3260,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>2</v>
@@ -3409,7 +3268,7 @@
       <c r="N21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="18" t="b">
+      <c r="O21" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="b">
@@ -3418,13 +3277,13 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>5</v>
@@ -3447,7 +3306,7 @@
       <c r="N22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="18" t="b">
+      <c r="O22" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="b">
@@ -3456,13 +3315,13 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>601</v>
+        <v>534</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>5</v>
@@ -3485,7 +3344,7 @@
       <c r="N23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="18" t="b">
+      <c r="O23" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="b">
@@ -3494,13 +3353,13 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>5</v>
@@ -3523,7 +3382,7 @@
       <c r="N24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O24" s="18" t="b">
+      <c r="O24" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="b">
@@ -3532,13 +3391,13 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
-        <v>632</v>
+        <v>565</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>5</v>
@@ -3553,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>2</v>
@@ -3561,7 +3420,7 @@
       <c r="N25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="18" t="b">
+      <c r="O25" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="b">
@@ -3570,13 +3429,13 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
-        <v>594</v>
+        <v>527</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>5</v>
@@ -3591,7 +3450,7 @@
         <v>2</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>2</v>
@@ -3599,7 +3458,7 @@
       <c r="N26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O26" s="18" t="b">
+      <c r="O26" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="b">
@@ -3608,13 +3467,13 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
-        <v>625</v>
+        <v>558</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>5</v>
@@ -3629,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>584</v>
+        <v>517</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>2</v>
@@ -3637,7 +3496,7 @@
       <c r="N27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="18" t="b">
+      <c r="O27" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P27" s="6" t="b">
@@ -3646,13 +3505,13 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>591</v>
+        <v>524</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>5</v>
@@ -3675,7 +3534,7 @@
       <c r="N28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="18" t="b">
+      <c r="O28" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="b">
@@ -3684,13 +3543,13 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>592</v>
+        <v>525</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>5</v>
@@ -3713,7 +3572,7 @@
       <c r="N29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="18" t="b">
+      <c r="O29" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="b">
@@ -3722,13 +3581,13 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>628</v>
+        <v>561</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>633</v>
+        <v>566</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>5</v>
@@ -3751,7 +3610,7 @@
       <c r="N30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O30" s="18" t="b">
+      <c r="O30" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="b">
@@ -3760,13 +3619,13 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>593</v>
+        <v>526</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>5</v>
@@ -3789,7 +3648,7 @@
       <c r="N31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O31" s="18" t="b">
+      <c r="O31" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="b">
@@ -3798,16 +3657,16 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>639</v>
+        <v>572</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>596</v>
+        <v>529</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>5</v>
@@ -3830,7 +3689,7 @@
       <c r="N32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O32" s="18" t="b">
+      <c r="O32" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="b">
@@ -3839,7 +3698,7 @@
     </row>
     <row r="33" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>640</v>
+        <v>573</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>29</v>
@@ -3848,7 +3707,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>5</v>
@@ -3871,7 +3730,7 @@
       <c r="N33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O33" s="18" t="b">
+      <c r="O33" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P33" s="6" t="b">
@@ -3886,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>5</v>
@@ -3909,7 +3768,7 @@
       <c r="N34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="18" t="b">
+      <c r="O34" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="b">
@@ -3927,7 +3786,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>5</v>
@@ -3950,7 +3809,7 @@
       <c r="N35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O35" s="18" t="b">
+      <c r="O35" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="b">
@@ -3965,7 +3824,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>5</v>
@@ -3977,7 +3836,7 @@
         <v>90</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>173</v>
@@ -3988,7 +3847,7 @@
       <c r="N36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O36" s="18" t="b">
+      <c r="O36" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P36" s="6" t="b">
@@ -4003,7 +3862,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>5</v>
@@ -4015,7 +3874,7 @@
         <v>180</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>581</v>
+        <v>514</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>173</v>
@@ -4026,7 +3885,7 @@
       <c r="N37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O37" s="18" t="b">
+      <c r="O37" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P37" s="6" t="b">
@@ -4041,7 +3900,7 @@
         <v>40</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>5</v>
@@ -4064,7 +3923,7 @@
       <c r="N38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O38" s="18" t="b">
+      <c r="O38" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P38" s="6" t="b">
@@ -4074,7 +3933,7 @@
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="6" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>42</v>
@@ -4083,7 +3942,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>5</v>
@@ -4106,7 +3965,7 @@
       <c r="N39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O39" s="18" t="b">
+      <c r="O39" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="6" t="b">
@@ -4124,7 +3983,7 @@
         <v>46</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>5</v>
@@ -4147,7 +4006,7 @@
       <c r="N40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O40" s="18" t="b">
+      <c r="O40" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="b">
@@ -4165,7 +4024,7 @@
         <v>49</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>5</v>
@@ -4188,7 +4047,7 @@
       <c r="N41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O41" s="18" t="b">
+      <c r="O41" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="b">
@@ -4203,7 +4062,7 @@
         <v>51</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>5</v>
@@ -4226,7 +4085,7 @@
       <c r="N42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O42" s="18" t="b">
+      <c r="O42" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="6" t="b">
@@ -4244,7 +4103,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>5</v>
@@ -4259,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>582</v>
+        <v>515</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>2</v>
@@ -4267,7 +4126,7 @@
       <c r="N43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O43" s="18" t="b">
+      <c r="O43" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P43" s="6" t="b">
@@ -4285,7 +4144,7 @@
         <v>57</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>5</v>
@@ -4308,7 +4167,7 @@
       <c r="N44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O44" s="18" t="b">
+      <c r="O44" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P44" s="6" t="b">
@@ -4323,7 +4182,7 @@
         <v>59</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>5</v>
@@ -4346,7 +4205,7 @@
       <c r="N45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O45" s="18" t="b">
+      <c r="O45" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P45" s="6" t="b">
@@ -4361,7 +4220,7 @@
         <v>61</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>5</v>
@@ -4384,7 +4243,7 @@
       <c r="N46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O46" s="18" t="b">
+      <c r="O46" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="b">
@@ -4399,7 +4258,7 @@
         <v>63</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>5</v>
@@ -4422,7 +4281,7 @@
       <c r="N47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O47" s="18" t="b">
+      <c r="O47" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="6" t="b">
@@ -4437,7 +4296,7 @@
         <v>65</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>5</v>
@@ -4460,7 +4319,7 @@
       <c r="N48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="18" t="b">
+      <c r="O48" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="6" t="b">
@@ -4475,7 +4334,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>5</v>
@@ -4498,7 +4357,7 @@
       <c r="N49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O49" s="18" t="b">
+      <c r="O49" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P49" s="6" t="b">
@@ -4513,7 +4372,7 @@
         <v>68</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>5</v>
@@ -4536,7 +4395,7 @@
       <c r="N50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O50" s="18" t="b">
+      <c r="O50" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P50" s="6" t="b">
@@ -4551,7 +4410,7 @@
         <v>70</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>5</v>
@@ -4574,7 +4433,7 @@
       <c r="N51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O51" s="18" t="b">
+      <c r="O51" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P51" s="6" t="b">
@@ -4589,7 +4448,7 @@
         <v>72</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>5</v>
@@ -4612,7 +4471,7 @@
       <c r="N52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O52" s="18" t="b">
+      <c r="O52" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P52" s="6" t="b">
@@ -4627,7 +4486,7 @@
         <v>75</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>5</v>
@@ -4650,7 +4509,7 @@
       <c r="N53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O53" s="18" t="b">
+      <c r="O53" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P53" s="6" t="b">
@@ -4665,7 +4524,7 @@
         <v>78</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>5</v>
@@ -4688,7 +4547,7 @@
       <c r="N54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="18" t="b">
+      <c r="O54" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P54" s="6" t="b">
@@ -4703,7 +4562,7 @@
         <v>81</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>5</v>
@@ -4726,7 +4585,7 @@
       <c r="N55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O55" s="18" t="b">
+      <c r="O55" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P55" s="6" t="b">
@@ -4741,7 +4600,7 @@
         <v>83</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>5</v>
@@ -4764,7 +4623,7 @@
       <c r="N56" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O56" s="18" t="b">
+      <c r="O56" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P56" s="6" t="b">
@@ -4779,7 +4638,7 @@
         <v>85</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>5</v>
@@ -4791,7 +4650,7 @@
         <v>600</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>173</v>
@@ -4802,7 +4661,7 @@
       <c r="N57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O57" s="18" t="b">
+      <c r="O57" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P57" s="6" t="b">
@@ -4817,7 +4676,7 @@
         <v>87</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>5</v>
@@ -4840,7 +4699,7 @@
       <c r="N58" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O58" s="18" t="b">
+      <c r="O58" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P58" s="6" t="b">
@@ -4855,7 +4714,7 @@
         <v>89</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>5</v>
@@ -4867,7 +4726,7 @@
         <v>1000</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>173</v>
@@ -4878,7 +4737,7 @@
       <c r="N59" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O59" s="18" t="b">
+      <c r="O59" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P59" s="6" t="b">
@@ -4893,7 +4752,7 @@
         <v>91</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>5</v>
@@ -4916,7 +4775,7 @@
       <c r="N60" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O60" s="18" t="b">
+      <c r="O60" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P60" s="6" t="b">
@@ -4925,13 +4784,13 @@
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>610</v>
+        <v>543</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>5</v>
@@ -4954,7 +4813,7 @@
       <c r="N61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O61" s="18" t="b">
+      <c r="O61" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P61" s="6" t="b">
@@ -4963,13 +4822,13 @@
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>5</v>
@@ -4992,7 +4851,7 @@
       <c r="N62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O62" s="18" t="b">
+      <c r="O62" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P62" s="6" t="b">
@@ -5001,13 +4860,13 @@
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
-        <v>612</v>
+        <v>545</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>5</v>
@@ -5019,7 +4878,7 @@
         <v>2000</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>173</v>
@@ -5030,7 +4889,7 @@
       <c r="N63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O63" s="18" t="b">
+      <c r="O63" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P63" s="6" t="b">
@@ -5039,13 +4898,13 @@
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
-        <v>613</v>
+        <v>546</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>5</v>
@@ -5057,7 +4916,7 @@
         <v>2000</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L64" s="6" t="s">
         <v>173</v>
@@ -5068,7 +4927,7 @@
       <c r="N64" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O64" s="18" t="b">
+      <c r="O64" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P64" s="6" t="b">
@@ -5077,13 +4936,13 @@
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="6" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>5</v>
@@ -5095,7 +4954,7 @@
         <v>2000</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L65" s="6" t="s">
         <v>173</v>
@@ -5106,7 +4965,7 @@
       <c r="N65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O65" s="18" t="b">
+      <c r="O65" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="6" t="b">
@@ -5115,13 +4974,13 @@
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>5</v>
@@ -5144,7 +5003,7 @@
       <c r="N66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O66" s="18" t="b">
+      <c r="O66" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P66" s="6" t="b">
@@ -5153,13 +5012,13 @@
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>5</v>
@@ -5171,7 +5030,7 @@
         <v>40</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>173</v>
@@ -5182,7 +5041,7 @@
       <c r="N67" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O67" s="18" t="b">
+      <c r="O67" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P67" s="6" t="b">
@@ -5197,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>5</v>
@@ -5209,7 +5068,7 @@
         <v>40</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>583</v>
+        <v>516</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>173</v>
@@ -5220,7 +5079,7 @@
       <c r="N68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O68" s="18" t="b">
+      <c r="O68" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P68" s="6" t="b">
@@ -5232,13 +5091,13 @@
         <v>101</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>5</v>
@@ -5261,7 +5120,7 @@
       <c r="N69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O69" s="18" t="b">
+      <c r="O69" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P69" s="6" t="b">
@@ -5273,13 +5132,13 @@
         <v>101</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>5</v>
@@ -5302,7 +5161,7 @@
       <c r="N70" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O70" s="18" t="b">
+      <c r="O70" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P70" s="6" t="b">
@@ -5314,13 +5173,13 @@
         <v>104</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>619</v>
+        <v>552</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>5</v>
@@ -5343,7 +5202,7 @@
       <c r="N71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O71" s="18" t="b">
+      <c r="O71" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P71" s="6" t="b">
@@ -5352,13 +5211,13 @@
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>5</v>
@@ -5381,7 +5240,7 @@
       <c r="N72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O72" s="18" t="b">
+      <c r="O72" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P72" s="6" t="b">
@@ -5390,13 +5249,13 @@
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
-        <v>621</v>
+        <v>554</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>5</v>
@@ -5419,7 +5278,7 @@
       <c r="N73" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O73" s="18" t="b">
+      <c r="O73" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P73" s="6" t="b">
@@ -5428,13 +5287,13 @@
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="6" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>5</v>
@@ -5457,7 +5316,7 @@
       <c r="N74" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O74" s="18" t="b">
+      <c r="O74" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P74" s="6" t="b">
@@ -5466,13 +5325,13 @@
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
-        <v>623</v>
+        <v>556</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>5</v>
@@ -5495,7 +5354,7 @@
       <c r="N75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O75" s="18" t="b">
+      <c r="O75" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P75" s="6" t="b">
@@ -5504,13 +5363,13 @@
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>624</v>
+        <v>557</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>5</v>
@@ -5533,7 +5392,7 @@
       <c r="N76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O76" s="18" t="b">
+      <c r="O76" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P76" s="6" t="b">
@@ -5548,7 +5407,7 @@
         <v>112</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>5</v>
@@ -5560,7 +5419,7 @@
         <v>5000</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>173</v>
@@ -5571,7 +5430,7 @@
       <c r="N77" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O77" s="18" t="b">
+      <c r="O77" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P77" s="6" t="b">
@@ -5586,7 +5445,7 @@
         <v>114</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>5</v>
@@ -5598,7 +5457,7 @@
         <v>1000</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>173</v>
@@ -5609,7 +5468,7 @@
       <c r="N78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O78" s="18" t="b">
+      <c r="O78" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P78" s="6" t="b">
@@ -5624,7 +5483,7 @@
         <v>116</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>5</v>
@@ -5647,7 +5506,7 @@
       <c r="N79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O79" s="18" t="b">
+      <c r="O79" s="17" t="b">
         <v>0</v>
       </c>
       <c r="P79" s="6" t="b">
@@ -8284,11 +8143,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF1001"/>
+  <dimension ref="A1:AF961"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8322,19 +8181,19 @@
         <v>267</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>629</v>
+        <v>562</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>630</v>
+        <v>563</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>136</v>
@@ -8346,25 +8205,25 @@
         <v>138</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>577</v>
+        <v>510</v>
       </c>
       <c r="M1" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>645</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -8388,13 +8247,13 @@
         <v>141</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8405,13 +8264,13 @@
         <v>144</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8422,13 +8281,13 @@
         <v>146</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8439,13 +8298,13 @@
         <v>148</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8456,13 +8315,13 @@
         <v>150</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8473,13 +8332,13 @@
         <v>152</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8490,13 +8349,13 @@
         <v>155</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8507,13 +8366,13 @@
         <v>157</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8524,13 +8383,13 @@
         <v>159</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8541,13 +8400,13 @@
         <v>161</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8558,13 +8417,13 @@
         <v>163</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
@@ -8575,24 +8434,24 @@
         <v>165</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>586</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>121</v>
@@ -8625,7 +8484,7 @@
         <v>167</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>142</v>
@@ -8642,7 +8501,7 @@
         <v>170</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>142</v>
@@ -8651,7 +8510,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
         <v>196</v>
       </c>
@@ -8659,7 +8518,7 @@
         <v>197</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>121</v>
@@ -8677,7 +8536,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
         <v>198</v>
       </c>
@@ -8685,7 +8544,7 @@
         <v>199</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>121</v>
@@ -8703,7 +8562,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
         <v>200</v>
       </c>
@@ -8711,7 +8570,7 @@
         <v>201</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>121</v>
@@ -8720,44 +8579,63 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="C20" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>100</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+    </row>
+    <row r="21" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>121</v>
@@ -8777,28 +8655,16 @@
       <c r="M21" s="6">
         <v>100</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-    </row>
-    <row r="22" spans="2:28" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>121</v>
@@ -8815,10 +8681,9 @@
       <c r="L22" s="6">
         <v>0</v>
       </c>
-      <c r="M22" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="N22" s="10"/>
+      <c r="M22" s="6">
+        <v>100</v>
+      </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -8832,15 +8697,15 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
     </row>
-    <row r="23" spans="2:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>121</v>
@@ -8857,23 +8722,45 @@
       <c r="L23" s="6">
         <v>0</v>
       </c>
-      <c r="M23" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="M23" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+    </row>
+    <row r="24" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="H24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="L24" s="6">
         <v>0</v>
       </c>
@@ -8881,29 +8768,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
+    <row r="25" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="L25" s="6">
         <v>0</v>
       </c>
@@ -8911,15 +8788,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
       <c r="C26" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>121</v>
@@ -8936,20 +8814,19 @@
       <c r="L26" s="6">
         <v>0</v>
       </c>
-      <c r="M26" s="10">
-        <v>100000</v>
-      </c>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>121</v>
@@ -8961,24 +8838,25 @@
         <v>174</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
       </c>
-      <c r="M27" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="10">
+        <v>100000</v>
+      </c>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>121</v>
@@ -8990,24 +8868,24 @@
         <v>174</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L28" s="6">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>121</v>
@@ -9022,21 +8900,21 @@
         <v>193</v>
       </c>
       <c r="L29" s="6">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="M29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>121</v>
@@ -9048,24 +8926,24 @@
         <v>174</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L30" s="6">
-        <v>0.1</v>
+        <v>-40</v>
       </c>
       <c r="M30" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>121</v>
@@ -9086,61 +8964,64 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>14</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>121</v>
@@ -9160,13 +9041,13 @@
     </row>
     <row r="35" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>121</v>
@@ -9186,13 +9067,13 @@
     </row>
     <row r="36" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>121</v>
@@ -9203,25 +9084,22 @@
       <c r="I36" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="L36" s="6">
         <v>0</v>
       </c>
       <c r="M36" s="6">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>121</v>
@@ -9244,13 +9122,13 @@
     </row>
     <row r="38" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>121</v>
@@ -9273,13 +9151,13 @@
     </row>
     <row r="39" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>121</v>
@@ -9302,105 +9180,105 @@
     </row>
     <row r="40" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
       </c>
       <c r="M40" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>223</v>
+        <v>168</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>100</v>
-      </c>
     </row>
     <row r="44" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>121</v>
@@ -9412,24 +9290,24 @@
         <v>174</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
       </c>
       <c r="M44" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>121</v>
@@ -9441,24 +9319,24 @@
         <v>174</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
       </c>
       <c r="M45" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>121</v>
@@ -9481,13 +9359,13 @@
     </row>
     <row r="47" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>121</v>
@@ -9505,18 +9383,18 @@
         <v>0</v>
       </c>
       <c r="M47" s="6">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>121</v>
@@ -9528,24 +9406,24 @@
         <v>174</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="L48" s="6">
         <v>0</v>
       </c>
       <c r="M48" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>121</v>
@@ -9554,7 +9432,10 @@
         <v>173</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="L49" s="6">
         <v>0</v>
@@ -9565,25 +9446,22 @@
     </row>
     <row r="50" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="L50" s="6">
         <v>0</v>
@@ -9594,51 +9472,51 @@
     </row>
     <row r="51" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="L51" s="6">
         <v>0</v>
       </c>
       <c r="M51" s="6">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="L52" s="6">
         <v>0</v>
@@ -9649,51 +9527,51 @@
     </row>
     <row r="53" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
       <c r="M53" s="6">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -9704,33 +9582,42 @@
     </row>
     <row r="55" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="H55" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="L55" s="6">
         <v>0</v>
       </c>
       <c r="M55" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>121</v>
@@ -9739,18 +9626,18 @@
         <v>0</v>
       </c>
       <c r="M56" s="6">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>121</v>
@@ -9759,135 +9646,138 @@
         <v>0</v>
       </c>
       <c r="M57" s="6">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>207</v>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <v>1000</v>
+      <c r="H62" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>168</v>
+        <v>121</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>142</v>
@@ -9898,40 +9788,30 @@
     </row>
     <row r="65" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>142</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L65" s="6">
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
-        <v>100000</v>
-      </c>
-      <c r="N65" s="11"/>
+        <v>168</v>
+      </c>
     </row>
     <row r="66" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>142</v>
@@ -9952,27 +9832,40 @@
     </row>
     <row r="67" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="H67" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="11">
+        <v>100000</v>
+      </c>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>142</v>
@@ -9980,54 +9873,27 @@
     </row>
     <row r="69" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <v>1000</v>
-      </c>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="70" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>121</v>
@@ -10062,13 +9928,13 @@
     </row>
     <row r="71" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>121</v>
@@ -10103,22 +9969,31 @@
     </row>
     <row r="72" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>1000</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
@@ -10135,31 +10010,22 @@
     </row>
     <row r="73" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0</v>
-      </c>
-      <c r="M73" s="6">
-        <v>1000</v>
+        <v>207</v>
       </c>
       <c r="Q73" s="16"/>
       <c r="R73" s="16"/>
@@ -10176,13 +10042,13 @@
     </row>
     <row r="74" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>121</v>
@@ -10217,13 +10083,13 @@
     </row>
     <row r="75" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>121</v>
@@ -10258,22 +10124,31 @@
     </row>
     <row r="76" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>1000</v>
       </c>
       <c r="Q76" s="16"/>
       <c r="R76" s="16"/>
@@ -10290,31 +10165,22 @@
     </row>
     <row r="77" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L77" s="6">
-        <v>0</v>
-      </c>
-      <c r="M77" s="6">
-        <v>1000</v>
+        <v>207</v>
       </c>
       <c r="Q77" s="16"/>
       <c r="R77" s="16"/>
@@ -10331,13 +10197,13 @@
     </row>
     <row r="78" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>121</v>
@@ -10372,13 +10238,13 @@
     </row>
     <row r="79" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>121</v>
@@ -10413,13 +10279,13 @@
     </row>
     <row r="80" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>121</v>
@@ -10454,25 +10320,31 @@
     </row>
     <row r="81" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>285</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6">
+        <v>1000</v>
       </c>
       <c r="Q81" s="16"/>
       <c r="R81" s="16"/>
@@ -10489,31 +10361,25 @@
     </row>
     <row r="82" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0</v>
-      </c>
-      <c r="M82" s="6">
-        <v>1000</v>
       </c>
       <c r="Q82" s="16"/>
       <c r="R82" s="16"/>
@@ -10530,13 +10396,13 @@
     </row>
     <row r="83" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>121</v>
@@ -10571,13 +10437,13 @@
     </row>
     <row r="84" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>121</v>
@@ -10612,22 +10478,25 @@
     </row>
     <row r="85" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -10650,13 +10519,13 @@
     </row>
     <row r="86" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>121</v>
@@ -10665,16 +10534,13 @@
         <v>168</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="L86" s="6">
         <v>0</v>
       </c>
       <c r="M86" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Q86" s="16"/>
       <c r="R86" s="16"/>
@@ -10691,13 +10557,13 @@
     </row>
     <row r="87" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>121</v>
@@ -10732,13 +10598,13 @@
     </row>
     <row r="88" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>121</v>
@@ -10773,13 +10639,13 @@
     </row>
     <row r="89" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>121</v>
@@ -10814,13 +10680,13 @@
     </row>
     <row r="90" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>121</v>
@@ -10855,13 +10721,13 @@
     </row>
     <row r="91" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>121</v>
@@ -10896,13 +10762,13 @@
     </row>
     <row r="92" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>121</v>
@@ -10937,13 +10803,13 @@
     </row>
     <row r="93" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>121</v>
@@ -10978,13 +10844,13 @@
     </row>
     <row r="94" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>121</v>
@@ -11019,13 +10885,13 @@
     </row>
     <row r="95" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>121</v>
@@ -11060,13 +10926,13 @@
     </row>
     <row r="96" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>121</v>
@@ -11099,15 +10965,15 @@
       <c r="AA96" s="16"/>
       <c r="AB96" s="16"/>
     </row>
-    <row r="97" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>121</v>
@@ -11140,15 +11006,15 @@
       <c r="AA97" s="16"/>
       <c r="AB97" s="16"/>
     </row>
-    <row r="98" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>121</v>
@@ -11181,15 +11047,15 @@
       <c r="AA98" s="16"/>
       <c r="AB98" s="16"/>
     </row>
-    <row r="99" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>121</v>
@@ -11222,15 +11088,15 @@
       <c r="AA99" s="16"/>
       <c r="AB99" s="16"/>
     </row>
-    <row r="100" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>121</v>
@@ -11239,7 +11105,16 @@
         <v>168</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0</v>
+      </c>
+      <c r="M100" s="6">
+        <v>100</v>
       </c>
       <c r="Q100" s="16"/>
       <c r="R100" s="16"/>
@@ -11254,15 +11129,15 @@
       <c r="AA100" s="16"/>
       <c r="AB100" s="16"/>
     </row>
-    <row r="101" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>121</v>
@@ -11286,15 +11161,15 @@
       <c r="AA101" s="16"/>
       <c r="AB101" s="16"/>
     </row>
-    <row r="102" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>121</v>
@@ -11304,9 +11179,6 @@
       </c>
       <c r="I102" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="Q102" s="16"/>
       <c r="R102" s="16"/>
@@ -11321,33 +11193,27 @@
       <c r="AA102" s="16"/>
       <c r="AB102" s="16"/>
     </row>
-    <row r="103" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C103" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>121</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L103" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M103" s="6">
-        <v>10000</v>
+        <v>52</v>
       </c>
       <c r="Q103" s="16"/>
       <c r="R103" s="16"/>
@@ -11362,15 +11228,15 @@
       <c r="AA103" s="16"/>
       <c r="AB103" s="16"/>
     </row>
-    <row r="104" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>121</v>
@@ -11379,7 +11245,7 @@
         <v>173</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>193</v>
@@ -11403,15 +11269,15 @@
       <c r="AA104" s="16"/>
       <c r="AB104" s="16"/>
     </row>
-    <row r="105" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>121</v>
@@ -11420,13 +11286,16 @@
         <v>173</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>174</v>
+        <v>357</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="L105" s="6">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="M105" s="6">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="Q105" s="16"/>
       <c r="R105" s="16"/>
@@ -11441,1535 +11310,483 @@
       <c r="AA105" s="16"/>
       <c r="AB105" s="16"/>
     </row>
-    <row r="106" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
       <c r="C106" s="6" t="s">
-        <v>360</v>
+        <v>593</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>655</v>
+        <v>594</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>121</v>
+        <v>359</v>
       </c>
       <c r="H106" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="6"/>
+    </row>
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="C107" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="H107" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I106" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
-      <c r="T106" s="16"/>
-      <c r="U106" s="16"/>
-      <c r="V106" s="16"/>
-      <c r="W106" s="16"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="16"/>
-      <c r="Z106" s="16"/>
-      <c r="AA106" s="16"/>
-      <c r="AB106" s="16"/>
-    </row>
-    <row r="107" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="I107" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="17"/>
-      <c r="T107" s="17"/>
-      <c r="U107" s="17"/>
-      <c r="V107" s="17"/>
-      <c r="W107" s="17"/>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="17"/>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="17"/>
-      <c r="AB107" s="17"/>
-    </row>
-    <row r="108" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
+      <c r="AD107" s="6"/>
+    </row>
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
       <c r="C108" s="6" t="s">
-        <v>365</v>
+        <v>597</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>655</v>
+        <v>598</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
-      <c r="U108" s="17"/>
-      <c r="V108" s="17"/>
-      <c r="W108" s="17"/>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="17"/>
-      <c r="AB108" s="17"/>
-    </row>
-    <row r="109" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="6"/>
+    </row>
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109"/>
       <c r="C109" s="6" t="s">
-        <v>367</v>
+        <v>599</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>655</v>
+        <v>600</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
-      <c r="U109" s="17"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="17"/>
-      <c r="AB109" s="17"/>
-    </row>
-    <row r="110" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0</v>
+      </c>
+      <c r="M109" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+    </row>
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
       <c r="C110" s="6" t="s">
-        <v>369</v>
+        <v>601</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>655</v>
+        <v>602</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="17"/>
-      <c r="AB110" s="17"/>
-    </row>
-    <row r="111" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L110" s="6">
+        <v>0</v>
+      </c>
+      <c r="M110" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+    </row>
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
       <c r="C111" s="6" t="s">
-        <v>371</v>
+        <v>603</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>655</v>
+        <v>604</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
-      <c r="U111" s="17"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="17"/>
-      <c r="AB111" s="17"/>
-    </row>
-    <row r="112" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L111" s="6">
+        <v>0</v>
+      </c>
+      <c r="M111" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="6"/>
+    </row>
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
       <c r="C112" s="6" t="s">
-        <v>373</v>
+        <v>605</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>655</v>
+        <v>606</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="17"/>
-      <c r="U112" s="17"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="17"/>
-      <c r="X112" s="17"/>
-      <c r="Y112" s="17"/>
-      <c r="Z112" s="17"/>
-      <c r="AA112" s="17"/>
-      <c r="AB112" s="17"/>
-    </row>
-    <row r="113" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="L112" s="6">
+        <v>-40</v>
+      </c>
+      <c r="M112" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="6"/>
+    </row>
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
       <c r="C113" s="6" t="s">
-        <v>376</v>
+        <v>607</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>655</v>
+        <v>608</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
-      <c r="U113" s="17"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="17"/>
-      <c r="AA113" s="17"/>
-      <c r="AB113" s="17"/>
-    </row>
-    <row r="114" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="L113" s="6">
+        <v>-30</v>
+      </c>
+      <c r="M113" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="6"/>
+    </row>
+    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114"/>
       <c r="C114" s="6" t="s">
-        <v>379</v>
+        <v>609</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>655</v>
+        <v>610</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
-      <c r="U114" s="17"/>
-      <c r="V114" s="17"/>
-      <c r="W114" s="17"/>
-      <c r="X114" s="17"/>
-      <c r="Y114" s="17"/>
-      <c r="Z114" s="17"/>
-      <c r="AA114" s="17"/>
-      <c r="AB114" s="17"/>
-    </row>
-    <row r="115" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="6"/>
+    </row>
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
       <c r="C115" s="6" t="s">
-        <v>381</v>
+        <v>611</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>655</v>
+        <v>612</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="17"/>
-      <c r="U115" s="17"/>
-      <c r="V115" s="17"/>
-      <c r="W115" s="17"/>
-      <c r="X115" s="17"/>
-      <c r="Y115" s="17"/>
-      <c r="Z115" s="17"/>
-      <c r="AA115" s="17"/>
-      <c r="AB115" s="17"/>
-    </row>
-    <row r="116" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="6"/>
+    </row>
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116"/>
       <c r="C116" s="6" t="s">
-        <v>383</v>
+        <v>613</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>655</v>
+        <v>614</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
-      <c r="U116" s="17"/>
-      <c r="V116" s="17"/>
-      <c r="W116" s="17"/>
-      <c r="X116" s="17"/>
-      <c r="Y116" s="17"/>
-      <c r="Z116" s="17"/>
-      <c r="AA116" s="17"/>
-      <c r="AB116" s="17"/>
-    </row>
-    <row r="117" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I117" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J117" s="6" t="s">
+      <c r="J116" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L117" s="6">
-        <v>0</v>
-      </c>
-      <c r="M117" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="17"/>
-      <c r="S117" s="17"/>
-      <c r="T117" s="17"/>
-      <c r="U117" s="17"/>
-      <c r="V117" s="17"/>
-      <c r="W117" s="17"/>
-      <c r="X117" s="17"/>
-      <c r="Y117" s="17"/>
-      <c r="Z117" s="17"/>
-      <c r="AA117" s="17"/>
-      <c r="AB117" s="17"/>
-    </row>
-    <row r="118" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L118" s="6">
-        <v>0</v>
-      </c>
-      <c r="M118" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
-      <c r="W118" s="17"/>
-      <c r="X118" s="17"/>
-      <c r="Y118" s="17"/>
-      <c r="Z118" s="17"/>
-      <c r="AA118" s="17"/>
-      <c r="AB118" s="17"/>
-    </row>
-    <row r="119" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L119" s="6">
-        <v>0</v>
-      </c>
-      <c r="M119" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-      <c r="U119" s="17"/>
-      <c r="V119" s="17"/>
-      <c r="W119" s="17"/>
-      <c r="X119" s="17"/>
-      <c r="Y119" s="17"/>
-      <c r="Z119" s="17"/>
-      <c r="AA119" s="17"/>
-      <c r="AB119" s="17"/>
-    </row>
-    <row r="120" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L120" s="6">
-        <v>0</v>
-      </c>
-      <c r="M120" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q120" s="17"/>
-      <c r="R120" s="17"/>
-      <c r="S120" s="17"/>
-      <c r="T120" s="17"/>
-      <c r="U120" s="17"/>
-      <c r="V120" s="17"/>
-      <c r="W120" s="17"/>
-      <c r="X120" s="17"/>
-      <c r="Y120" s="17"/>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="17"/>
-      <c r="AB120" s="17"/>
-    </row>
-    <row r="121" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L121" s="6">
-        <v>0</v>
-      </c>
-      <c r="M121" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q121" s="17"/>
-      <c r="R121" s="17"/>
-      <c r="S121" s="17"/>
-      <c r="T121" s="17"/>
-      <c r="U121" s="17"/>
-      <c r="V121" s="17"/>
-      <c r="W121" s="17"/>
-      <c r="X121" s="17"/>
-      <c r="Y121" s="17"/>
-      <c r="Z121" s="17"/>
-      <c r="AA121" s="17"/>
-      <c r="AB121" s="17"/>
-    </row>
-    <row r="122" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="L122" s="6">
-        <v>0</v>
-      </c>
-      <c r="M122" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q122" s="17"/>
-      <c r="R122" s="17"/>
-      <c r="S122" s="17"/>
-      <c r="T122" s="17"/>
-      <c r="U122" s="17"/>
-      <c r="V122" s="17"/>
-      <c r="W122" s="17"/>
-      <c r="X122" s="17"/>
-      <c r="Y122" s="17"/>
-      <c r="Z122" s="17"/>
-      <c r="AA122" s="17"/>
-      <c r="AB122" s="17"/>
-    </row>
-    <row r="123" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L123" s="6">
-        <v>-30</v>
-      </c>
-      <c r="M123" s="6">
-        <v>30</v>
-      </c>
-      <c r="Q123" s="17"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="17"/>
-      <c r="T123" s="17"/>
-      <c r="U123" s="17"/>
-      <c r="V123" s="17"/>
-      <c r="W123" s="17"/>
-      <c r="X123" s="17"/>
-      <c r="Y123" s="17"/>
-      <c r="Z123" s="17"/>
-      <c r="AA123" s="17"/>
-      <c r="AB123" s="17"/>
-    </row>
-    <row r="124" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L124" s="6">
-        <v>-40</v>
-      </c>
-      <c r="M124" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="17"/>
-      <c r="R124" s="17"/>
-      <c r="S124" s="17"/>
-      <c r="T124" s="17"/>
-      <c r="U124" s="17"/>
-      <c r="V124" s="17"/>
-      <c r="W124" s="17"/>
-      <c r="X124" s="17"/>
-      <c r="Y124" s="17"/>
-      <c r="Z124" s="17"/>
-      <c r="AA124" s="17"/>
-      <c r="AB124" s="17"/>
-    </row>
-    <row r="125" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q125" s="17"/>
-      <c r="R125" s="17"/>
-      <c r="S125" s="17"/>
-      <c r="T125" s="17"/>
-      <c r="U125" s="17"/>
-      <c r="V125" s="17"/>
-      <c r="W125" s="17"/>
-      <c r="X125" s="17"/>
-      <c r="Y125" s="17"/>
-      <c r="Z125" s="17"/>
-      <c r="AA125" s="17"/>
-      <c r="AB125" s="17"/>
-    </row>
-    <row r="126" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q126" s="17"/>
-      <c r="R126" s="17"/>
-      <c r="S126" s="17"/>
-      <c r="T126" s="17"/>
-      <c r="U126" s="17"/>
-      <c r="V126" s="17"/>
-      <c r="W126" s="17"/>
-      <c r="X126" s="17"/>
-      <c r="Y126" s="17"/>
-      <c r="Z126" s="17"/>
-      <c r="AA126" s="17"/>
-      <c r="AB126" s="17"/>
-    </row>
-    <row r="127" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q127" s="17"/>
-      <c r="R127" s="17"/>
-      <c r="S127" s="17"/>
-      <c r="T127" s="17"/>
-      <c r="U127" s="17"/>
-      <c r="V127" s="17"/>
-      <c r="W127" s="17"/>
-      <c r="X127" s="17"/>
-      <c r="Y127" s="17"/>
-      <c r="Z127" s="17"/>
-      <c r="AA127" s="17"/>
-      <c r="AB127" s="17"/>
-    </row>
-    <row r="128" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L128" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M128" s="6">
-        <v>10000</v>
-      </c>
-      <c r="Q128" s="17"/>
-      <c r="R128" s="17"/>
-      <c r="S128" s="17"/>
-      <c r="T128" s="17"/>
-      <c r="U128" s="17"/>
-      <c r="V128" s="17"/>
-      <c r="W128" s="17"/>
-      <c r="X128" s="17"/>
-      <c r="Y128" s="17"/>
-      <c r="Z128" s="17"/>
-      <c r="AA128" s="17"/>
-      <c r="AB128" s="17"/>
-    </row>
-    <row r="129" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L129" s="6">
-        <v>-10000</v>
-      </c>
-      <c r="M129" s="6">
-        <v>10000</v>
-      </c>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="17"/>
-      <c r="W129" s="17"/>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="17"/>
-      <c r="AA129" s="17"/>
-      <c r="AB129" s="17"/>
-    </row>
-    <row r="130" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L130" s="6">
-        <v>0</v>
-      </c>
-      <c r="M130" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q130" s="17"/>
-      <c r="R130" s="17"/>
-      <c r="S130" s="17"/>
-      <c r="T130" s="17"/>
-      <c r="U130" s="17"/>
-      <c r="V130" s="17"/>
-      <c r="W130" s="17"/>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="17"/>
-      <c r="AA130" s="17"/>
-      <c r="AB130" s="17"/>
-    </row>
-    <row r="131" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="17"/>
-      <c r="S131" s="17"/>
-      <c r="T131" s="17"/>
-      <c r="U131" s="17"/>
-      <c r="V131" s="17"/>
-      <c r="W131" s="17"/>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="17"/>
-      <c r="AB131" s="17"/>
-    </row>
-    <row r="132" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L132" s="6">
-        <v>0</v>
-      </c>
-      <c r="M132" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q132" s="17"/>
-      <c r="R132" s="17"/>
-      <c r="S132" s="17"/>
-      <c r="T132" s="17"/>
-      <c r="U132" s="17"/>
-      <c r="V132" s="17"/>
-      <c r="W132" s="17"/>
-      <c r="X132" s="17"/>
-      <c r="Y132" s="17"/>
-      <c r="Z132" s="17"/>
-      <c r="AA132" s="17"/>
-      <c r="AB132" s="17"/>
-    </row>
-    <row r="133" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L133" s="6">
-        <v>0</v>
-      </c>
-      <c r="M133" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q133" s="17"/>
-      <c r="R133" s="17"/>
-      <c r="S133" s="17"/>
-      <c r="T133" s="17"/>
-      <c r="U133" s="17"/>
-      <c r="V133" s="17"/>
-      <c r="W133" s="17"/>
-      <c r="X133" s="17"/>
-      <c r="Y133" s="17"/>
-      <c r="Z133" s="17"/>
-      <c r="AA133" s="17"/>
-      <c r="AB133" s="17"/>
-    </row>
-    <row r="134" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L134" s="6">
-        <v>0</v>
-      </c>
-      <c r="M134" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q134" s="17"/>
-      <c r="R134" s="17"/>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
-      <c r="U134" s="17"/>
-      <c r="V134" s="17"/>
-      <c r="W134" s="17"/>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="17"/>
-      <c r="AA134" s="17"/>
-      <c r="AB134" s="17"/>
-    </row>
-    <row r="135" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L135" s="6">
-        <v>0</v>
-      </c>
-      <c r="M135" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q135" s="17"/>
-      <c r="R135" s="17"/>
-      <c r="S135" s="17"/>
-      <c r="T135" s="17"/>
-      <c r="U135" s="17"/>
-      <c r="V135" s="17"/>
-      <c r="W135" s="17"/>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="17"/>
-      <c r="AB135" s="17"/>
-    </row>
-    <row r="136" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L136" s="6">
-        <v>0</v>
-      </c>
-      <c r="M136" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="17"/>
-      <c r="T136" s="17"/>
-      <c r="U136" s="17"/>
-      <c r="V136" s="17"/>
-      <c r="W136" s="17"/>
-      <c r="X136" s="17"/>
-      <c r="Y136" s="17"/>
-      <c r="Z136" s="17"/>
-      <c r="AA136" s="17"/>
-      <c r="AB136" s="17"/>
-    </row>
-    <row r="137" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L137" s="6">
-        <v>0</v>
-      </c>
-      <c r="M137" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q137" s="17"/>
-      <c r="R137" s="17"/>
-      <c r="S137" s="17"/>
-      <c r="T137" s="17"/>
-      <c r="U137" s="17"/>
-      <c r="V137" s="17"/>
-      <c r="W137" s="17"/>
-      <c r="X137" s="17"/>
-      <c r="Y137" s="17"/>
-      <c r="Z137" s="17"/>
-      <c r="AA137" s="17"/>
-      <c r="AB137" s="17"/>
-    </row>
-    <row r="138" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L138" s="6">
-        <v>0</v>
-      </c>
-      <c r="M138" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="17"/>
-      <c r="T138" s="17"/>
-      <c r="U138" s="17"/>
-      <c r="V138" s="17"/>
-      <c r="W138" s="17"/>
-      <c r="X138" s="17"/>
-      <c r="Y138" s="17"/>
-      <c r="Z138" s="17"/>
-      <c r="AA138" s="17"/>
-      <c r="AB138" s="17"/>
-    </row>
-    <row r="139" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L139" s="6">
-        <v>0</v>
-      </c>
-      <c r="M139" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q139" s="17"/>
-      <c r="R139" s="17"/>
-      <c r="S139" s="17"/>
-      <c r="T139" s="17"/>
-      <c r="U139" s="17"/>
-      <c r="V139" s="17"/>
-      <c r="W139" s="17"/>
-      <c r="X139" s="17"/>
-      <c r="Y139" s="17"/>
-      <c r="Z139" s="17"/>
-      <c r="AA139" s="17"/>
-      <c r="AB139" s="17"/>
-    </row>
-    <row r="140" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L140" s="6">
-        <v>0</v>
-      </c>
-      <c r="M140" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q140" s="17"/>
-      <c r="R140" s="17"/>
-      <c r="S140" s="17"/>
-      <c r="T140" s="17"/>
-      <c r="U140" s="17"/>
-      <c r="V140" s="17"/>
-      <c r="W140" s="17"/>
-      <c r="X140" s="17"/>
-      <c r="Y140" s="17"/>
-      <c r="Z140" s="17"/>
-      <c r="AA140" s="17"/>
-      <c r="AB140" s="17"/>
-    </row>
-    <row r="141" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L141" s="6">
-        <v>0</v>
-      </c>
-      <c r="M141" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q141" s="17"/>
-      <c r="R141" s="17"/>
-      <c r="S141" s="17"/>
-      <c r="T141" s="17"/>
-      <c r="U141" s="17"/>
-      <c r="V141" s="17"/>
-      <c r="W141" s="17"/>
-      <c r="X141" s="17"/>
-      <c r="Y141" s="17"/>
-      <c r="Z141" s="17"/>
-      <c r="AA141" s="17"/>
-      <c r="AB141" s="17"/>
-    </row>
-    <row r="142" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L142" s="6">
-        <v>0</v>
-      </c>
-      <c r="M142" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q142" s="17"/>
-      <c r="R142" s="17"/>
-      <c r="S142" s="17"/>
-      <c r="T142" s="17"/>
-      <c r="U142" s="17"/>
-      <c r="V142" s="17"/>
-      <c r="W142" s="17"/>
-      <c r="X142" s="17"/>
-      <c r="Y142" s="17"/>
-      <c r="Z142" s="17"/>
-      <c r="AA142" s="17"/>
-      <c r="AB142" s="17"/>
-    </row>
-    <row r="143" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L143" s="6">
-        <v>0</v>
-      </c>
-      <c r="M143" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q143" s="17"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17"/>
-      <c r="T143" s="17"/>
-      <c r="U143" s="17"/>
-      <c r="V143" s="17"/>
-      <c r="W143" s="17"/>
-      <c r="X143" s="17"/>
-      <c r="Y143" s="17"/>
-      <c r="Z143" s="17"/>
-      <c r="AA143" s="17"/>
-      <c r="AB143" s="17"/>
-    </row>
-    <row r="144" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I144" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L144" s="6">
-        <v>0</v>
-      </c>
-      <c r="M144" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q144" s="17"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="17"/>
-      <c r="T144" s="17"/>
-      <c r="U144" s="17"/>
-      <c r="V144" s="17"/>
-      <c r="W144" s="17"/>
-      <c r="X144" s="17"/>
-      <c r="Y144" s="17"/>
-      <c r="Z144" s="17"/>
-      <c r="AA144" s="17"/>
-      <c r="AB144" s="17"/>
-    </row>
-    <row r="145" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L145" s="6">
-        <v>0</v>
-      </c>
-      <c r="M145" s="6">
-        <v>100</v>
-      </c>
-      <c r="Q145" s="17"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="17"/>
-      <c r="V145" s="17"/>
-      <c r="W145" s="17"/>
-      <c r="X145" s="17"/>
-      <c r="Y145" s="17"/>
-      <c r="Z145" s="17"/>
-      <c r="AA145" s="17"/>
-      <c r="AB145" s="17"/>
-    </row>
-    <row r="146" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="3:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
+      <c r="AD116" s="6"/>
+    </row>
+    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13771,93 +12588,41 @@
     <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B20:B26</xm:sqref>
+          <xm:sqref>B21:B27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$F$2:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B30:B31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Unit_dropdowns!$P$2:$P$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B107</xm:sqref>
+          <xm:sqref>B31:B32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$I$2:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B33:B34</xm:sqref>
+          <xm:sqref>B34:B35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$G$2:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B36:B39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
-          <x14:formula1>
-            <xm:f>Unit_dropdowns!$R$2:$R$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B109</xm:sqref>
+          <xm:sqref>B37:B40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B43:B54 B69:B71 B73:B75 B77:B80 B82:B84 B87:B100 B117:B121 B132:B145</xm:sqref>
+          <xm:sqref>B44:B55 B70:B72 B74:B76 B78:B81 B83:B85 B88:B101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
@@ -13869,19 +12634,13 @@
           <x14:formula1>
             <xm:f>Unit_dropdowns!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B17:B18 B40</xm:sqref>
+          <xm:sqref>B17:B18 B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Unit_dropdowns!$O$2:$O$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A58:B58</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
-          <x14:formula1>
-            <xm:f>Unit_dropdowns!$Q$2:$Q$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B108</xm:sqref>
+          <xm:sqref>A59:B59</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
@@ -13893,7 +12652,7 @@
           <x14:formula1>
             <xm:f>Unit_dropdowns!$Z$2:$Z$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E145</xm:sqref>
+          <xm:sqref>E2:E105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13918,13 +12677,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>588</v>
+        <v>521</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>135</v>
@@ -13946,7 +12705,7 @@
         <v>175</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="C3" s="6">
         <v>0.1</v>
@@ -14067,7 +12826,7 @@
         <v>230</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="C14" s="6">
         <v>10</v>
@@ -14075,21 +12834,21 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>589</v>
+        <v>522</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>590</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>101</v>
@@ -14100,7 +12859,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>41</v>
@@ -14111,7 +12870,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>44</v>
@@ -14122,7 +12881,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>119</v>
@@ -14133,7 +12892,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>41</v>
@@ -14144,10 +12903,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C21" s="6">
         <v>20000</v>
@@ -14155,7 +12914,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>175</v>
@@ -14166,10 +12925,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -14177,7 +12936,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>285</v>
@@ -14188,7 +12947,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>242</v>
@@ -14199,7 +12958,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>247</v>
@@ -14210,7 +12969,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>252</v>
@@ -14221,7 +12980,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>119</v>
@@ -14232,10 +12991,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -14243,10 +13002,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -14254,10 +13013,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -14265,10 +13024,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
@@ -14276,10 +13035,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -14287,10 +13046,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C34" s="6">
         <v>10000</v>
@@ -14298,10 +13057,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C35" s="6">
         <v>0.5</v>
@@ -14309,10 +13068,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C36" s="6">
         <v>0.5</v>
@@ -14320,10 +13079,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -14331,10 +13090,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C38" s="6">
         <v>0.5</v>
@@ -14342,10 +13101,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C39" s="6">
         <v>0.1</v>
@@ -14353,10 +13112,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C40" s="6">
         <v>0.1</v>
@@ -14364,10 +13123,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="C41" s="6">
         <v>0.1</v>
@@ -14375,10 +13134,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C42" s="6">
         <v>0.2</v>
@@ -14386,10 +13145,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C43" s="6">
         <v>1000</v>
@@ -14397,10 +13156,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C44" s="6">
         <v>1000</v>
@@ -14408,10 +13167,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="C45" s="6">
         <v>1000</v>
@@ -14419,10 +13178,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C46" s="6">
         <v>2000</v>
@@ -14430,10 +13189,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C47" s="6">
         <v>0.1</v>
@@ -14441,10 +13200,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C48" s="6">
         <v>10</v>
@@ -14452,10 +13211,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C49" s="6">
         <v>0.05</v>
@@ -14463,10 +13222,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C50" s="6">
         <v>0.05</v>
@@ -14474,10 +13233,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C51" s="6">
         <v>0.1</v>
@@ -14485,10 +13244,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C52" s="6">
         <v>0.05</v>
@@ -14496,10 +13255,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -14507,7 +13266,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>575</v>
+        <v>508</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>41</v>
@@ -14551,10 +13310,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="C58" s="15">
         <v>1</v>
@@ -14587,7 +13346,7 @@
         <v>233</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="C61" s="6">
         <v>10</v>
@@ -14595,10 +13354,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C62" s="6">
         <v>10</v>
@@ -14606,10 +13365,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C63" s="6">
         <v>20</v>
@@ -14617,7 +13376,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>175</v>
@@ -14628,10 +13387,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -14639,7 +13398,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>285</v>
@@ -14650,7 +13409,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>242</v>
@@ -14661,7 +13420,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>247</v>
@@ -14672,7 +13431,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>252</v>
@@ -14683,7 +13442,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>119</v>
@@ -14694,10 +13453,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="C71" s="6">
         <v>1</v>
@@ -14705,7 +13464,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>175</v>
@@ -14716,10 +13475,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="C73" s="6">
         <v>1000</v>
@@ -14727,7 +13486,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>285</v>
@@ -14738,7 +13497,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>242</v>
@@ -14749,7 +13508,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>247</v>
@@ -14760,7 +13519,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>252</v>
@@ -14771,7 +13530,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>119</v>
@@ -14782,10 +13541,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="C79" s="6">
         <v>1E-3</v>
@@ -14826,10 +13585,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="C83" s="6">
         <v>100</v>
@@ -14837,10 +13596,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C84" s="6">
         <v>100</v>
@@ -14848,10 +13607,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="C85" s="6">
         <v>100</v>
@@ -14859,10 +13618,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C86" s="6">
         <v>200</v>
@@ -14870,10 +13629,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C87" s="6">
         <v>100</v>
@@ -14881,10 +13640,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>2</v>
@@ -14892,10 +13651,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="C89" s="6">
         <v>50</v>
@@ -14903,10 +13662,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="C90" s="6">
         <v>100</v>
@@ -14914,7 +13673,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>175</v>
@@ -14925,7 +13684,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>285</v>
@@ -14936,7 +13695,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>242</v>
@@ -14947,7 +13706,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>247</v>
@@ -14958,7 +13717,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>252</v>
@@ -14969,7 +13728,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>119</v>
@@ -14980,10 +13739,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="C97" s="6">
         <v>1E-3</v>
@@ -15016,70 +13775,70 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>435</v>
+        <v>368</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>262</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>63</v>
@@ -15088,232 +13847,232 @@
         <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
         <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
         <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="J2" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="K2" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="L2" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="M2" t="s">
         <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="O2" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="P2" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="Q2" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="R2" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="S2" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="T2" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="U2" t="s">
         <v>213</v>
       </c>
       <c r="V2" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="W2" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="X2" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="Y2" t="s">
         <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
         <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H3" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="J3" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="L3" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="M3" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="N3" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="O3" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="P3" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="R3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="S3" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="T3" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="U3" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="V3" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="W3" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="X3" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="Y3" t="s">
         <v>128</v>
       </c>
       <c r="Z3" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="H4" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="I4" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="J4" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="K4" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="L4" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="M4" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="O4" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="P4" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="Q4" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
       <c r="R4" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="S4" t="s">
         <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="U4" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="V4" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="W4" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="X4" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="Z4" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -15321,291 +14080,291 @@
         <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="J5" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="L5" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="M5" t="s">
         <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
       <c r="P5" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="Q5" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
       <c r="R5" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="S5" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="T5" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="U5" t="s">
         <v>79</v>
       </c>
       <c r="V5" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="X5" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="Z5" t="s">
-        <v>652</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="H6" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="L6" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="M6" t="s">
         <v>215</v>
       </c>
       <c r="O6" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="P6" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="Q6" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="T6" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="U6" t="s">
         <v>215</v>
       </c>
       <c r="V6" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="X6" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="Z6" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>463</v>
+      </c>
+      <c r="R7" t="s">
+        <v>464</v>
+      </c>
+      <c r="S7" t="s">
+        <v>465</v>
+      </c>
+      <c r="T7" t="s">
+        <v>466</v>
+      </c>
+      <c r="U7" t="s">
+        <v>462</v>
+      </c>
+      <c r="V7" t="s">
+        <v>467</v>
+      </c>
+      <c r="X7" t="s">
         <v>468</v>
       </c>
-      <c r="D7" t="s">
-        <v>527</v>
-      </c>
-      <c r="L7" t="s">
-        <v>528</v>
-      </c>
-      <c r="M7" t="s">
-        <v>529</v>
-      </c>
-      <c r="P7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>530</v>
-      </c>
-      <c r="R7" t="s">
-        <v>531</v>
-      </c>
-      <c r="S7" t="s">
-        <v>532</v>
-      </c>
-      <c r="T7" t="s">
-        <v>533</v>
-      </c>
-      <c r="U7" t="s">
-        <v>529</v>
-      </c>
-      <c r="V7" t="s">
-        <v>534</v>
-      </c>
-      <c r="X7" t="s">
-        <v>535</v>
-      </c>
       <c r="Z7" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="L8" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="M8" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="P8" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="Q8" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="S8" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="T8" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
       <c r="U8" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="V8" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="X8" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="Z8" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="L9" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="M9" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="P9" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="Q9" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="R9" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="T9" t="s">
         <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="V9" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="Z9" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="M10" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="P10" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="Q10" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="R10" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="T10" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="U10" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
         <v>233</v>
       </c>
       <c r="M11" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
       <c r="T11" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="U11" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
         <v>230</v>
       </c>
       <c r="M12" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="T12" t="s">
-        <v>561</v>
+        <v>494</v>
       </c>
       <c r="U12" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -15613,7 +14372,7 @@
         <v>120</v>
       </c>
       <c r="T13" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
       <c r="U13" t="s">
         <v>120</v>
@@ -15621,7 +14380,7 @@
     </row>
     <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="T14" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
